--- a/KM5c_data/DSDP_Site_609.xlsx
+++ b/KM5c_data/DSDP_Site_609.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +535,15 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -643,19 +648,19 @@
         </is>
       </c>
       <c r="X2">
-        <v>13.43059804</v>
+        <v>13.35</v>
       </c>
       <c r="Y2">
-        <v>4.313846399999999</v>
+        <v>4.399195263974608</v>
       </c>
       <c r="Z2">
-        <v>3.622043120000001</v>
+        <v>3.70739198397461</v>
       </c>
       <c r="AA2">
-        <v>-1.770598039999999</v>
+        <v>-1.68524917602539</v>
       </c>
       <c r="AB2">
-        <v>-0.9720153099999997</v>
+        <v>-0.8866664487526901</v>
       </c>
       <c r="AC2">
         <v>1.138383833939397</v>
@@ -681,10 +686,13 @@
         <v>16.6060606060606</v>
       </c>
       <c r="AJ2">
+        <v>13.8771</v>
+      </c>
+      <c r="AK2">
         <v>-2.2171</v>
       </c>
-      <c r="AK2">
-        <v>-1.418517273</v>
+      <c r="AL2">
+        <v>-1.418517270000001</v>
       </c>
     </row>
   </sheetData>
